--- a/public/assets/UpdatedAccountingElements_v2.26.xlsx
+++ b/public/assets/UpdatedAccountingElements_v2.26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a55492d745be1739/Documents/Auburn Undergrad/Spring 2026/COMP 4710/Accounting-Game/public/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahsessions/Documents/GitHub/Accounting-Game/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{326EE4B4-622E-EA4C-B83D-D63BB2892851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{012EA8F4-E263-49CE-B765-0FAA230ECF36}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ACB5BF-0B68-AD47-9620-F4006B79F0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="12" activeTab="13" xr2:uid="{922BA294-4DCC-45B5-8780-647AD84B5699}"/>
+    <workbookView xWindow="14700" yWindow="760" windowWidth="14700" windowHeight="16940" firstSheet="12" activeTab="12" xr2:uid="{922BA294-4DCC-45B5-8780-647AD84B5699}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="401">
   <si>
     <t>Assets</t>
   </si>
@@ -1263,6 +1263,9 @@
   </si>
   <si>
     <t>Orange and Navy LLP takes out a loan and uses this loan to purchase a building. What is the effect?</t>
+  </si>
+  <si>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1445,6 +1448,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1788,16 +1794,16 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>77</v>
       </c>
@@ -2074,7 +2080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>85</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>98</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>101</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>104</v>
       </c>
@@ -2168,7 +2174,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>107</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>116</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>119</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>122</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>128</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>131</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>134</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>137</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>149</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>158</v>
       </c>
@@ -2366,7 +2372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>161</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>164</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>167</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>170</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>176</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>179</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>182</v>
       </c>
@@ -2454,7 +2460,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>185</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>188</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>191</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>194</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>197</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>200</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>203</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>206</v>
       </c>
@@ -2539,52 +2545,52 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C60" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="s">
         <v>217</v>
       </c>
@@ -2609,13 +2615,13 @@
       <selection activeCell="B1" sqref="B1:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>248</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>249</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>250</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -2687,7 +2693,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>218</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>251</v>
       </c>
@@ -2703,7 +2709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>252</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>253</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>254</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>255</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>257</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>258</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>261</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>263</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>264</v>
       </c>
@@ -2855,137 +2861,137 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>279</v>
       </c>
@@ -3010,13 +3016,13 @@
       <selection activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -3032,7 +3038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>248</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>280</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>281</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>282</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -3088,7 +3094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -3104,7 +3110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>284</v>
       </c>
@@ -3112,7 +3118,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>285</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>77</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>286</v>
       </c>
@@ -3168,7 +3174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>287</v>
       </c>
@@ -3176,7 +3182,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>85</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>288</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -3224,7 +3230,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>289</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>257</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>258</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>101</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>104</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>110</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>290</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>122</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>291</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>127</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>133</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>292</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>134</v>
       </c>
@@ -3336,7 +3342,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>140</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>143</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>294</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>146</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>295</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>149</v>
       </c>
@@ -3384,7 +3390,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
@@ -3392,7 +3398,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>155</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>296</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>297</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>173</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>298</v>
       </c>
@@ -3432,7 +3438,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>269</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>299</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>270</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>80</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>84</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>179</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>300</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>301</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>182</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>271</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>185</v>
       </c>
@@ -3520,7 +3526,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>302</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>303</v>
       </c>
@@ -3536,57 +3542,57 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>206</v>
       </c>
@@ -3611,13 +3617,13 @@
       <selection activeCell="B2" sqref="B2:B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>282</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>100</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>247</v>
       </c>
@@ -3657,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>137</v>
       </c>
@@ -3673,7 +3679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>130</v>
       </c>
@@ -3689,7 +3695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>274</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -3721,7 +3727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>248</v>
       </c>
@@ -3729,7 +3735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -3737,7 +3743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>303</v>
       </c>
@@ -3753,7 +3759,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>131</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>110</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>116</v>
       </c>
@@ -3777,7 +3783,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>290</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>101</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>143</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>191</v>
       </c>
@@ -3809,7 +3815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>169</v>
       </c>
@@ -3817,7 +3823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>298</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>269</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>307</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>197</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>148</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>285</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>113</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>257</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>194</v>
       </c>
@@ -3921,7 +3927,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>258</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>67</v>
       </c>
@@ -3937,7 +3943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>263</v>
       </c>
@@ -3945,7 +3951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>280</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -3961,7 +3967,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>124</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>211</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>305</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>270</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>77</v>
       </c>
@@ -4009,7 +4015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>155</v>
       </c>
@@ -4017,7 +4023,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>292</v>
       </c>
@@ -4033,7 +4039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>287</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>273</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>182</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>84</v>
       </c>
@@ -4081,7 +4087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>161</v>
       </c>
@@ -4089,7 +4095,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>74</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>80</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>170</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>107</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>98</v>
       </c>
@@ -4129,7 +4135,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>39</v>
       </c>
@@ -4137,7 +4143,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>140</v>
       </c>
@@ -4145,7 +4151,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>299</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>252</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>288</v>
       </c>
@@ -4169,22 +4175,22 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>276</v>
       </c>
@@ -4200,19 +4206,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE0DBB-C999-5A44-8548-4898BD2D14AB}">
-  <dimension ref="A3:J27"/>
+  <dimension ref="A3:K27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="111.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="111.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>310</v>
       </c>
@@ -4234,8 +4240,11 @@
       <c r="J3" s="10" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4263,8 +4272,11 @@
       <c r="J4">
         <v>700</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4292,8 +4304,11 @@
       <c r="J5" s="15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4321,8 +4336,11 @@
       <c r="J6">
         <v>1300</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -4350,8 +4368,11 @@
       <c r="J7" s="15">
         <v>1900</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -4379,8 +4400,11 @@
       <c r="J8" s="15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -4408,8 +4432,11 @@
       <c r="J9" s="15">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -4437,8 +4464,11 @@
       <c r="J10" s="15">
         <v>1600</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4466,8 +4496,11 @@
       <c r="J11" s="15">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>9</v>
       </c>
@@ -4495,8 +4528,11 @@
       <c r="J12" s="15">
         <v>2700</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10</v>
       </c>
@@ -4524,8 +4560,11 @@
       <c r="J13" s="16">
         <v>1300</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11</v>
       </c>
@@ -4553,8 +4592,11 @@
       <c r="J14" s="15">
         <v>1100</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>12</v>
       </c>
@@ -4582,8 +4624,11 @@
       <c r="J15" s="15">
         <v>3500</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>13</v>
       </c>
@@ -4611,8 +4656,11 @@
       <c r="J16" s="15">
         <v>2600</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>14</v>
       </c>
@@ -4640,8 +4688,11 @@
       <c r="J17" s="15">
         <v>2000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>15</v>
       </c>
@@ -4669,8 +4720,11 @@
       <c r="J18" s="15">
         <v>3500</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="23">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>16</v>
       </c>
@@ -4698,8 +4752,11 @@
       <c r="J19" s="15">
         <v>2400</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>17</v>
       </c>
@@ -4727,8 +4784,11 @@
       <c r="J20" s="16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>18</v>
       </c>
@@ -4756,8 +4816,11 @@
       <c r="J21" s="12">
         <v>1500</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>19</v>
       </c>
@@ -4785,8 +4848,11 @@
       <c r="J22" s="16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>20</v>
       </c>
@@ -4814,8 +4880,11 @@
       <c r="J23" s="15">
         <v>1750</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>337</v>
       </c>
@@ -4832,7 +4901,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>340</v>
       </c>
@@ -4855,18 +4924,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683674F0-791E-8B43-805E-7A46EA7231CA}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="119" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C2" s="21" t="s">
         <v>342</v>
       </c>
@@ -4874,7 +4943,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
         <v>343</v>
       </c>
@@ -4900,7 +4969,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="20">
         <v>1</v>
       </c>
@@ -4921,7 +4990,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -4937,7 +5006,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -4955,7 +5024,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -4977,7 +5046,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -5001,7 +5070,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -5022,7 +5091,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -5038,7 +5107,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -5056,7 +5125,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -5072,7 +5141,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -5088,7 +5157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -5104,7 +5173,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -5120,7 +5189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -5138,7 +5207,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -5156,7 +5225,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -5174,7 +5243,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -5192,7 +5261,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -5210,7 +5279,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -5228,7 +5297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -5240,7 +5309,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -5272,13 +5341,13 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="150.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="150.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C2" s="21" t="s">
         <v>342</v>
       </c>
@@ -5286,7 +5355,7 @@
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>343</v>
       </c>
@@ -5306,7 +5375,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6">
         <v>1</v>
       </c>
@@ -5326,7 +5395,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -5346,7 +5415,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -5366,7 +5435,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="6">
         <v>4</v>
       </c>
@@ -5386,7 +5455,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="6">
         <v>5</v>
       </c>
@@ -5406,7 +5475,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>6</v>
       </c>
@@ -5426,7 +5495,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="6">
         <v>7</v>
       </c>
@@ -5446,7 +5515,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="6">
         <v>8</v>
       </c>
@@ -5466,7 +5535,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="6">
         <v>9</v>
       </c>
@@ -5486,7 +5555,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>10</v>
       </c>
@@ -5506,7 +5575,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>11</v>
       </c>
@@ -5526,7 +5595,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>12</v>
       </c>
@@ -5546,7 +5615,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>13</v>
       </c>
@@ -5566,7 +5635,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6">
         <v>14</v>
       </c>
@@ -5586,7 +5655,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6">
         <v>15</v>
       </c>
@@ -5606,7 +5675,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>16</v>
       </c>
@@ -5626,7 +5695,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6">
         <v>17</v>
       </c>
@@ -5646,7 +5715,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="6">
         <v>18</v>
       </c>
@@ -5666,7 +5735,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>19</v>
       </c>
@@ -5686,7 +5755,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>20</v>
       </c>
@@ -5725,16 +5794,16 @@
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>_xlfn.CONCAT(All!A2, " - Assets")</f>
         <v>Accounts Receivable - Assets</v>
@@ -5773,7 +5842,7 @@
         <v>Accumulated Other Comprehenseive Income - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
         <f>_xlfn.CONCAT(All!A3, " - Assets")</f>
         <v>Accumulated Depletion - Assets</v>
@@ -5795,7 +5864,7 @@
         <v>Accumulated Profits - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(All!A4, " - Assets")</f>
         <v>Accumulated Depreciation - Assets</v>
@@ -5817,7 +5886,7 @@
         <v>Additional Paid in Capital - Common Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f>_xlfn.CONCAT(All!A5, " - Assets")</f>
         <v>Advances to Officers, Directors, and Employees - Assets</v>
@@ -5839,7 +5908,7 @@
         <v>Additional Paid in Capital - Preferred Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f>_xlfn.CONCAT(All!A6, " - Assets")</f>
         <v>Allowance for Doubtful Accounts - Assets</v>
@@ -5861,7 +5930,7 @@
         <v>Additional Paid in Capital - Treasury Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>_xlfn.CONCAT(All!A7, " - Assets")</f>
         <v>Allowance to Adjust Available-for-Sale Securities to Market - Assets</v>
@@ -5883,7 +5952,7 @@
         <v>Common Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f>_xlfn.CONCAT(All!A8, " - Assets")</f>
         <v>Allowance to Adjust Trading Securities to Market - Assets</v>
@@ -5905,7 +5974,7 @@
         <v>Dividends Paid - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>_xlfn.CONCAT(All!A9, " - Assets")</f>
         <v>Buildings - Assets</v>
@@ -5927,7 +5996,7 @@
         <v>Preferred Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>_xlfn.CONCAT(All!A10, " - Assets")</f>
         <v>Cash - Assets</v>
@@ -5949,7 +6018,7 @@
         <v>Retained Earnings - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>_xlfn.CONCAT(All!A11, " - Assets")</f>
         <v>Cash Equivalents - Assets</v>
@@ -5971,7 +6040,7 @@
         <v>Treasury Stock - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>_xlfn.CONCAT(All!A12, " - Assets")</f>
         <v>Certificates of Deposit - Assets</v>
@@ -5993,7 +6062,7 @@
         <v>Unrealized Gain on Available for Sale Securities - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f>_xlfn.CONCAT(All!A13, " - Assets")</f>
         <v>Checking Accounts - Assets</v>
@@ -6015,7 +6084,7 @@
         <v>Unrealized Loss on Available for Sale Securities - Stockholder's Equity</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>_xlfn.CONCAT(All!A14, " - Assets")</f>
         <v>Computer Equipment - Assets</v>
@@ -6033,7 +6102,7 @@
         <v>Rent Receipts - Revenue</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f>_xlfn.CONCAT(All!A15, " - Assets")</f>
         <v>Computer Hardware - Assets</v>
@@ -6051,7 +6120,7 @@
         <v>Royalty Income - Revenue</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f>_xlfn.CONCAT(All!A16, " - Assets")</f>
         <v>Copyright - Assets</v>
@@ -6069,7 +6138,7 @@
         <v>Sales - Revenue</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f>_xlfn.CONCAT(All!A17, " - Assets")</f>
         <v>Customer Lists - Assets</v>
@@ -6087,7 +6156,7 @@
         <v>Sales Discounts - Revenue</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f>_xlfn.CONCAT(All!A18, " - Assets")</f>
         <v>Deferred Tax Assets - Assets</v>
@@ -6105,7 +6174,7 @@
         <v>Sales Returns and Allowances - Revenue</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>_xlfn.CONCAT(All!A19, " - Assets")</f>
         <v>Equipment - Assets</v>
@@ -6123,7 +6192,7 @@
         <v>Unrealized Gain on Trading Securities - Revenue</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f>_xlfn.CONCAT(All!A20, " - Assets")</f>
         <v>Finished Goods Inventory - Assets</v>
@@ -6137,7 +6206,7 @@
         <v>Entertainment Costs - Expense</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f>_xlfn.CONCAT(All!A21, " - Assets")</f>
         <v>Franchise - Assets</v>
@@ -6151,7 +6220,7 @@
         <v>Wages Costs - Expense</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>_xlfn.CONCAT(All!A22, " - Assets")</f>
         <v>Furniture - Assets</v>
@@ -6165,7 +6234,7 @@
         <v>Equipment Rental Fees - Expense</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>_xlfn.CONCAT(All!A23, " - Assets")</f>
         <v>Goodwill - Assets</v>
@@ -6179,7 +6248,7 @@
         <v>Federal Taxes Paid - Expense</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f>_xlfn.CONCAT(All!A24, " - Assets")</f>
         <v>Interest Receivable - Assets</v>
@@ -6193,7 +6262,7 @@
         <v>Fines and Penalties - Expense</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>_xlfn.CONCAT(All!A25, " - Assets")</f>
         <v>Inventory - Assets</v>
@@ -6207,7 +6276,7 @@
         <v>Foreign Exchange Losses - Expense</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f>_xlfn.CONCAT(All!A26, " - Assets")</f>
         <v>Investment in Subsidiary - Assets</v>
@@ -6221,7 +6290,7 @@
         <v>Gas Costs - Expense</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>_xlfn.CONCAT(All!A27, " - Assets")</f>
         <v>Investments - Assets</v>
@@ -6235,7 +6304,7 @@
         <v>Income Taxes Costs - Expense</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>_xlfn.CONCAT(All!A28, " - Assets")</f>
         <v>Investments-Available-for-Sale Securities - Assets</v>
@@ -6249,7 +6318,7 @@
         <v>Insurance Costs - Expense</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f>_xlfn.CONCAT(All!A29, " - Assets")</f>
         <v>Investments-Equity Method - Assets</v>
@@ -6263,7 +6332,7 @@
         <v>Interest Costs - Expense</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f>_xlfn.CONCAT(All!A30, " - Assets")</f>
         <v>Investments-Trading Securities - Assets</v>
@@ -6277,7 +6346,7 @@
         <v>IT Costs - Expense</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>_xlfn.CONCAT(All!A31, " - Assets")</f>
         <v>Land - Assets</v>
@@ -6291,7 +6360,7 @@
         <v>Legal Fees - Expense</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f>_xlfn.CONCAT(All!A32, " - Assets")</f>
         <v>Leased Assets - Assets</v>
@@ -6305,7 +6374,7 @@
         <v>License Fees and Taxes - Expense</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>_xlfn.CONCAT(All!A33, " - Assets")</f>
         <v>Leasehold Improvements - Assets</v>
@@ -6319,7 +6388,7 @@
         <v>Loss from Impairment - Expense</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="str">
         <f>_xlfn.CONCAT(All!A34, " - Assets")</f>
         <v>Marketable Securities - Assets</v>
@@ -6333,7 +6402,7 @@
         <v>Loss on Disposal of Property,Plant, &amp; Equipment - Expense</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
         <f>_xlfn.CONCAT(All!A35, " - Assets")</f>
         <v>Money Market Accounts - Assets</v>
@@ -6347,7 +6416,7 @@
         <v>Loss on Sale of Intangibles - Expense</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f>_xlfn.CONCAT(All!A36, " - Assets")</f>
         <v>Natural Resources - Assets</v>
@@ -6361,7 +6430,7 @@
         <v>Loss on Sale of Investments - Expense</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f>_xlfn.CONCAT(All!A37, " - Assets")</f>
         <v>Notes Receivable - Assets</v>
@@ -6375,7 +6444,7 @@
         <v>Meals Costs - Expense</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f>_xlfn.CONCAT(All!A38, " - Assets")</f>
         <v>Office Equipment - Assets</v>
@@ -6389,7 +6458,7 @@
         <v>Medicare Taxes Cost - Expense</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f>_xlfn.CONCAT(All!A39, " - Assets")</f>
         <v>Patents - Assets</v>
@@ -6403,7 +6472,7 @@
         <v>Miscellaneous Costs - Expense</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f>_xlfn.CONCAT(All!A40, " - Assets")</f>
         <v>Petty Cash - Assets</v>
@@ -6417,7 +6486,7 @@
         <v>Office Rent Fees - Expense</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
         <f>_xlfn.CONCAT(All!A41, " - Assets")</f>
         <v>Prepaid Advertising - Assets</v>
@@ -6431,7 +6500,7 @@
         <v>Organizational Costs - Expense</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f>_xlfn.CONCAT(All!A42, " - Assets")</f>
         <v>Prepaid Insurance - Assets</v>
@@ -6445,7 +6514,7 @@
         <v>Other Costs - Expense</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f>_xlfn.CONCAT(All!A43, " - Assets")</f>
         <v>Prepaid Office Supplies - Assets</v>
@@ -6459,7 +6528,7 @@
         <v>Penalties and Fines - Expense</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f>_xlfn.CONCAT(All!A44, " - Assets")</f>
         <v>Prepaid Rent - Assets</v>
@@ -6473,7 +6542,7 @@
         <v>Postage Costs - Expense</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="e">
         <f>_xlfn.CONCAT(All!#REF!, " - Assets")</f>
         <v>#REF!</v>
@@ -6487,7 +6556,7 @@
         <v>Warranty Costs - Expense</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>_xlfn.CONCAT(All!A45, " - Assets")</f>
         <v>Prepaid Repairs &amp; Maintenance - Assets</v>
@@ -6501,7 +6570,7 @@
         <v>Promotional Materials Costs - Expense</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>_xlfn.CONCAT(All!A46, " - Assets")</f>
         <v>Prepaid Security Services - Assets</v>
@@ -6515,7 +6584,7 @@
         <v>Water Fees - Expense</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>_xlfn.CONCAT(All!A47, " - Assets")</f>
         <v>Prepaid Subscriptions - Assets</v>
@@ -6529,7 +6598,7 @@
         <v>Property Tax Fees - Expense</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>_xlfn.CONCAT(All!A48, " - Assets")</f>
         <v>Raw Materials Inventory - Assets</v>
@@ -6543,7 +6612,7 @@
         <v>Purchase Allowances - Expense</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
         <f>_xlfn.CONCAT(All!A49, " - Assets")</f>
         <v>Rent Receivable - Assets</v>
@@ -6557,7 +6626,7 @@
         <v>Purchases - Expense</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f>_xlfn.CONCAT(All!A50, " - Assets")</f>
         <v>Savings Accounts - Assets</v>
@@ -6571,7 +6640,7 @@
         <v>Purchases Discounts - Expense</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
         <f>_xlfn.CONCAT(All!A51, " - Assets")</f>
         <v>Service Equipment - Assets</v>
@@ -6585,7 +6654,7 @@
         <v>Rent Fees - Expense</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
         <f>_xlfn.CONCAT(All!A52, " - Assets")</f>
         <v>Short-Term Bonds Receivable - Assets</v>
@@ -6599,7 +6668,7 @@
         <v>Repairs &amp; Maintenance Costs - Expense</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
         <f>_xlfn.CONCAT(All!A53, " - Assets")</f>
         <v>Supplies Inventory - Assets</v>
@@ -6613,7 +6682,7 @@
         <v>Research and Development Costs - Expense</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
         <f>_xlfn.CONCAT(All!A54, " - Assets")</f>
         <v>Tax Refund Receivable - Assets</v>
@@ -6627,7 +6696,7 @@
         <v>Royalties Paid - Expense</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="str">
         <f>_xlfn.CONCAT(All!A55, " - Assets")</f>
         <v>Trademark - Assets</v>
@@ -6641,7 +6710,7 @@
         <v>Salaries Paid - Expense</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
         <f>_xlfn.CONCAT(All!A56, " - Assets")</f>
         <v>Trading Securities - Assets</v>
@@ -6655,7 +6724,7 @@
         <v>Security Services Costs - Expense</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="str">
         <f>_xlfn.CONCAT(All!A57, " - Assets")</f>
         <v>Treasury Bills - Assets</v>
@@ -6669,7 +6738,7 @@
         <v>Service Charges - Expense</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="str">
         <f>_xlfn.CONCAT(All!A58, " - Assets")</f>
         <v>Trucks - Assets</v>
@@ -6679,7 +6748,7 @@
         <v>Service Supplies Costs - Expense</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f>_xlfn.CONCAT(All!A59, " - Assets")</f>
         <v>Work-in-Process Inventory - Assets</v>
@@ -6689,55 +6758,55 @@
         <v>Social Security Taxes Paid - Expense</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="str">
         <f>_xlfn.CONCAT(All!C57, " - Expense")</f>
         <v>Software Subscription Costs - Expense</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="str">
         <f>_xlfn.CONCAT(All!C58, " - Expense")</f>
         <v>Store Supplies Costs - Expense</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="str">
         <f>_xlfn.CONCAT(All!C59, " - Expense")</f>
         <v>Supplies Costs - Expense</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C64" s="3" t="str">
         <f>_xlfn.CONCAT(All!C60, " - Expense")</f>
         <v>Taxes Costs - Expense</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="str">
         <f>_xlfn.CONCAT(All!C61, " - Expense")</f>
         <v>Trade Show Costs - Expense</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="3" t="str">
         <f>_xlfn.CONCAT(All!C62, " - Expense")</f>
         <v>Training Costs - Expense</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="3" t="str">
         <f>_xlfn.CONCAT(All!C63, " - Expense")</f>
         <v>Transportation-In - Expense</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="3" t="str">
         <f>_xlfn.CONCAT(All!C64, " - Expense")</f>
         <v>Travel Costs - Expense</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C69" s="3" t="str">
         <f>_xlfn.CONCAT(All!C65, " - Expense")</f>
         <v>Unemployment Taxes Costs - Expense</v>
@@ -6763,14 +6832,14 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6781,7 +6850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -6792,7 +6861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -6803,7 +6872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -6814,7 +6883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -6822,7 +6891,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
@@ -6830,7 +6899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>65</v>
       </c>
@@ -6838,7 +6907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>85</v>
       </c>
@@ -6846,7 +6915,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>95</v>
       </c>
@@ -6854,7 +6923,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>98</v>
       </c>
@@ -6862,7 +6931,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>101</v>
       </c>
@@ -6870,7 +6939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -6878,7 +6947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>110</v>
       </c>
@@ -6886,7 +6955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
@@ -6894,7 +6963,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>128</v>
       </c>
@@ -6902,7 +6971,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>140</v>
       </c>
@@ -6910,7 +6979,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>143</v>
       </c>
@@ -6918,7 +6987,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
@@ -6926,7 +6995,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>152</v>
       </c>
@@ -6934,47 +7003,47 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>203</v>
       </c>
@@ -6999,14 +7068,14 @@
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7017,7 +7086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7028,7 +7097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -7039,7 +7108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7050,7 +7119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -7061,7 +7130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -7072,7 +7141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -7083,7 +7152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -7094,7 +7163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
@@ -7105,7 +7174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -7116,7 +7185,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -7124,7 +7193,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -7132,7 +7201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>89</v>
       </c>
@@ -7140,7 +7209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
@@ -7148,7 +7217,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>98</v>
       </c>
@@ -7156,7 +7225,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>101</v>
       </c>
@@ -7164,7 +7233,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
@@ -7172,7 +7241,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -7180,7 +7249,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>122</v>
       </c>
@@ -7188,7 +7257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>125</v>
       </c>
@@ -7196,7 +7265,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
@@ -7204,7 +7273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>140</v>
       </c>
@@ -7212,7 +7281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>143</v>
       </c>
@@ -7220,7 +7289,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>146</v>
       </c>
@@ -7228,7 +7297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>149</v>
       </c>
@@ -7236,7 +7305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>152</v>
       </c>
@@ -7244,7 +7313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>155</v>
       </c>
@@ -7252,7 +7321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
@@ -7260,7 +7329,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>179</v>
       </c>
@@ -7268,7 +7337,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>182</v>
       </c>
@@ -7276,7 +7345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>185</v>
       </c>
@@ -7284,7 +7353,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
@@ -7292,7 +7361,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>194</v>
       </c>
@@ -7300,7 +7369,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>206</v>
       </c>
@@ -7308,27 +7377,27 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>204</v>
       </c>
@@ -7353,14 +7422,14 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7371,7 +7440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -7382,7 +7451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -7393,7 +7462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -7404,7 +7473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -7415,7 +7484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -7426,7 +7495,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -7437,7 +7506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>35</v>
       </c>
@@ -7448,7 +7517,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -7459,7 +7528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -7470,7 +7539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>55</v>
       </c>
@@ -7481,7 +7550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
@@ -7492,7 +7561,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -7503,7 +7572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>81</v>
       </c>
@@ -7511,7 +7580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -7519,7 +7588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -7527,7 +7596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>101</v>
       </c>
@@ -7535,7 +7604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>107</v>
       </c>
@@ -7543,7 +7612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>110</v>
       </c>
@@ -7551,7 +7620,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>113</v>
       </c>
@@ -7559,7 +7628,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>116</v>
       </c>
@@ -7567,7 +7636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>119</v>
       </c>
@@ -7575,7 +7644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>131</v>
       </c>
@@ -7583,7 +7652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>137</v>
       </c>
@@ -7591,7 +7660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>140</v>
       </c>
@@ -7599,7 +7668,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>143</v>
       </c>
@@ -7607,7 +7676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>146</v>
       </c>
@@ -7615,7 +7684,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>155</v>
       </c>
@@ -7623,7 +7692,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>161</v>
       </c>
@@ -7631,7 +7700,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>170</v>
       </c>
@@ -7639,7 +7708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>182</v>
       </c>
@@ -7647,7 +7716,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>191</v>
       </c>
@@ -7655,7 +7724,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>194</v>
       </c>
@@ -7663,7 +7732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>197</v>
       </c>
@@ -7671,7 +7740,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>200</v>
       </c>
@@ -7679,7 +7748,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>204</v>
       </c>
@@ -7704,13 +7773,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7718,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>219</v>
       </c>
@@ -7726,7 +7795,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
@@ -7734,7 +7803,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -7742,7 +7811,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -7750,7 +7819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -7758,112 +7827,112 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>217</v>
       </c>
@@ -7888,13 +7957,13 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7902,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -7910,7 +7979,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>219</v>
       </c>
@@ -7918,7 +7987,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -7926,7 +7995,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -7934,7 +8003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -7942,7 +8011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -7950,7 +8019,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>232</v>
       </c>
@@ -7958,7 +8027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -7966,7 +8035,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -7974,7 +8043,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>71</v>
       </c>
@@ -7982,7 +8051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>75</v>
       </c>
@@ -7990,7 +8059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -7998,7 +8067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
@@ -8006,7 +8075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>234</v>
       </c>
@@ -8014,142 +8083,142 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>214</v>
       </c>
@@ -8174,13 +8243,13 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8188,7 +8257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
@@ -8196,7 +8265,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>219</v>
       </c>
@@ -8204,7 +8273,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>221</v>
       </c>
@@ -8212,7 +8281,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -8220,7 +8289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -8228,7 +8297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -8236,7 +8305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>47</v>
       </c>
@@ -8244,7 +8313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>232</v>
       </c>
@@ -8252,7 +8321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -8260,7 +8329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -8268,7 +8337,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
@@ -8276,7 +8345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -8284,7 +8353,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
@@ -8292,7 +8361,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
@@ -8300,7 +8369,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>100</v>
       </c>
@@ -8308,7 +8377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -8316,7 +8385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
@@ -8324,7 +8393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>235</v>
       </c>
@@ -8332,7 +8401,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>124</v>
       </c>
@@ -8340,97 +8409,97 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>214</v>
       </c>
@@ -8452,13 +8521,13 @@
       <selection activeCell="B2" sqref="B2:B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>245</v>
       </c>
@@ -8466,7 +8535,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>247</v>
       </c>
@@ -8474,7 +8543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -8482,7 +8551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>248</v>
       </c>
@@ -8490,7 +8559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>249</v>
       </c>
@@ -8498,7 +8567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>250</v>
       </c>
@@ -8506,7 +8575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -8514,7 +8583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>45</v>
       </c>
@@ -8522,7 +8591,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
@@ -8530,7 +8599,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>218</v>
       </c>
@@ -8538,7 +8607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>251</v>
       </c>
@@ -8546,7 +8615,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -8554,7 +8623,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -8562,7 +8631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>252</v>
       </c>
@@ -8570,7 +8639,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>253</v>
       </c>
@@ -8578,7 +8647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>85</v>
       </c>
@@ -8586,7 +8655,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>254</v>
       </c>
@@ -8594,7 +8663,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>95</v>
       </c>
@@ -8602,7 +8671,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>255</v>
       </c>
@@ -8610,7 +8679,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
@@ -8618,7 +8687,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>257</v>
       </c>
@@ -8626,7 +8695,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>258</v>
       </c>
@@ -8634,7 +8703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>101</v>
       </c>
@@ -8642,7 +8711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -8650,7 +8719,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -8658,7 +8727,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>122</v>
       </c>
@@ -8666,7 +8735,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
@@ -8674,7 +8743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>261</v>
       </c>
@@ -8682,7 +8751,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>263</v>
       </c>
@@ -8690,7 +8759,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>264</v>
       </c>
@@ -8698,7 +8767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
@@ -8706,7 +8775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
@@ -8714,7 +8783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>265</v>
       </c>
@@ -8722,7 +8791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>266</v>
       </c>
@@ -8730,7 +8799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
@@ -8738,7 +8807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>267</v>
       </c>
@@ -8746,7 +8815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>152</v>
       </c>
@@ -8754,7 +8823,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>155</v>
       </c>
@@ -8762,7 +8831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>158</v>
       </c>
@@ -8770,7 +8839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>161</v>
       </c>
@@ -8778,7 +8847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>164</v>
       </c>
@@ -8786,7 +8855,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>167</v>
       </c>
@@ -8794,7 +8863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>170</v>
       </c>
@@ -8802,7 +8871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>176</v>
       </c>
@@ -8810,7 +8879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>269</v>
       </c>
@@ -8818,7 +8887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>270</v>
       </c>
@@ -8826,7 +8895,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>271</v>
       </c>
@@ -8834,7 +8903,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>272</v>
       </c>
@@ -8842,7 +8911,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>273</v>
       </c>
@@ -8850,7 +8919,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>274</v>
       </c>
@@ -8858,7 +8927,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>275</v>
       </c>
@@ -8866,7 +8935,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>203</v>
       </c>
@@ -8874,7 +8943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>276</v>
       </c>
@@ -8882,7 +8951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>277</v>
       </c>
@@ -8890,7 +8959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>278</v>
       </c>
@@ -8898,7 +8967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>279</v>
       </c>
@@ -8906,7 +8975,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>280</v>
       </c>
@@ -8914,7 +8983,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>281</v>
       </c>
@@ -8922,7 +8991,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>27</v>
       </c>
@@ -8930,7 +8999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>282</v>
       </c>
@@ -8938,7 +9007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -8946,7 +9015,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>284</v>
       </c>
@@ -8954,7 +9023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -8962,7 +9031,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>285</v>
       </c>
@@ -8970,7 +9039,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
@@ -8978,7 +9047,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -8986,7 +9055,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -8994,7 +9063,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -9002,7 +9071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>286</v>
       </c>
@@ -9010,7 +9079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>287</v>
       </c>
@@ -9018,7 +9087,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>288</v>
       </c>
@@ -9026,7 +9095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>89</v>
       </c>
@@ -9034,7 +9103,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>92</v>
       </c>
@@ -9042,7 +9111,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>289</v>
       </c>
@@ -9050,7 +9119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>290</v>
       </c>
@@ -9058,7 +9127,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>291</v>
       </c>
@@ -9066,7 +9135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>127</v>
       </c>
@@ -9074,7 +9143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
@@ -9082,7 +9151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>133</v>
       </c>
@@ -9090,7 +9159,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>292</v>
       </c>
@@ -9098,7 +9167,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>134</v>
       </c>
@@ -9106,7 +9175,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>294</v>
       </c>
@@ -9114,7 +9183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>295</v>
       </c>
@@ -9122,7 +9191,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>149</v>
       </c>
@@ -9130,7 +9199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>296</v>
       </c>
@@ -9138,7 +9207,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>297</v>
       </c>
@@ -9146,7 +9215,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>173</v>
       </c>
@@ -9154,7 +9223,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>298</v>
       </c>
@@ -9162,7 +9231,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>299</v>
       </c>
@@ -9170,7 +9239,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>80</v>
       </c>
@@ -9178,7 +9247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -9186,7 +9255,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>179</v>
       </c>
@@ -9194,177 +9263,177 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>64</v>
       </c>
@@ -9375,23 +9444,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="47b4e388-7a75-40af-8b04-42818f2fdb9b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009AA8A71A87AA11429A024FE38DBCFB28" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b45171dc56d0661eeeb51bc3d30179e3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="47b4e388-7a75-40af-8b04-42818f2fdb9b" xmlns:ns4="c997e9c3-07ef-4103-ac9e-c49d1d746bce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71589af1c2ed18426e960dc22356cc2f" ns3:_="" ns4:_="">
     <xsd:import namespace="47b4e388-7a75-40af-8b04-42818f2fdb9b"/>
@@ -9612,10 +9664,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="47b4e388-7a75-40af-8b04-42818f2fdb9b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8548443D-DC83-441E-A117-A889C06CA291}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3D524E-4D0B-4E73-9423-303FE9996AF8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="47b4e388-7a75-40af-8b04-42818f2fdb9b"/>
+    <ds:schemaRef ds:uri="c997e9c3-07ef-4103-ac9e-c49d1d746bce"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9638,20 +9718,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA3D524E-4D0B-4E73-9423-303FE9996AF8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8548443D-DC83-441E-A117-A889C06CA291}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="47b4e388-7a75-40af-8b04-42818f2fdb9b"/>
-    <ds:schemaRef ds:uri="c997e9c3-07ef-4103-ac9e-c49d1d746bce"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>